--- a/biology/Botanique/Cornichon/Cornichon.xlsx
+++ b/biology/Botanique/Cornichon/Cornichon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cornichon est une variété de concombre (Cucumis sativus), généralement de petite taille, utilisé comme condiment. On fait mariner les cornichons dans une saumure, dans du vinaigre ou dans une autre solution, et on les laisse fermenter pendant un certain temps, soit par immersion dans une solution acide, soit par acidification ou par lacto-fermentation. 
-Historiquement, le concombre était récolté à maturité, à la différence du cornichon. Des variétés ont ensuite été sélectionnées pour produire, d'une part des cornichons, d'autre part des concombres. Les sélections effectuées par l'homme ont accentué les caractères propres à chacun, pour obtenir des cultivars distincts[1].
+Historiquement, le concombre était récolté à maturité, à la différence du cornichon. Des variétés ont ensuite été sélectionnées pour produire, d'une part des cornichons, d'autre part des concombres. Les sélections effectuées par l'homme ont accentué les caractères propres à chacun, pour obtenir des cultivars distincts.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Près de 160 variétés sont inscrites au Catalogue européen[2] et près de 10 au Catalogue français[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Près de 160 variétés sont inscrites au Catalogue européen et près de 10 au Catalogue français.
 Quelques variétés : Ceto, de Bourbonne, de Russie, Faster, Fin de Meaux, Parigyno, Silver, Vert petit de Paris...
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sol doit être profond, meuble et bien fertilisé, l'exposition bien ensoleillée.
 Le semis se fait en serre ou en pleine terre (température supérieure à 16 °C) quand les gelées ne sont plus à craindre. Le semis se fait en poquet de deux à trois graines à 50 cm sur le rang et à 1 m entre les lignes, généralement palissées à l'aide de branchages. Seul le plant le plus vigoureux est conservé.
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,12 +624,11 @@
           <t>Différents goûts, tailles et aspects</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cornichons que l'on trouve couramment commercialisés en France aujourd’hui, généralement importés, principalement de Chine, du sud de l’Inde et du Viet Nam, sont petits, croquants. Cependant, les cornichons ont un goût, une taille et un aspect différents. Ainsi, en Europe centrale et orientale, les cornichons sont souvent plus gros et plus doux, tel le malossol, emblématique des cuisines slaves. Notons qu’en Russie, bien que le mot cornichon (корнишон) existe, on utilise habituellement le mot concombre, « ogouriéts » (огурец). Il y a aussi des variétés sans boursouflures, que l'on trouve notamment en Angleterre et en Amérique du Nord.
-Cornichons au vinaigre
-Les cornichons frottés sont conservés confits dans le vinaigre blanc et le sel, condimentés à l'estragon, l'échalote, l'ail, les graines de capucine et souvent en compagnie de petits oignons blancs[4],[5],[6]. La macération dans un vinaigre versé bouillant dure 15 jours[7]. Coupés en julienne ou en tranches, ils sont la finition indispensable de la sauce charcutière (qui se mange chaude), hachés dans la mayonnaise de la sauce tartare (avec œuf dur, câpres, échalote et persil) et de la sauce verte[8].
-Les cornichons confits au vinaigre sont appréciés dans les sandwichs (notamment le jambon-beurre), et les cornichons doux (Dill Pickles) dans les hamburgers[9],[10].
 </t>
         </is>
       </c>
@@ -637,12 +654,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Différents goûts, tailles et aspects</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cornichons au vinaigre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cornichons frottés sont conservés confits dans le vinaigre blanc et le sel, condimentés à l'estragon, l'échalote, l'ail, les graines de capucine et souvent en compagnie de petits oignons blancs. La macération dans un vinaigre versé bouillant dure 15 jours. Coupés en julienne ou en tranches, ils sont la finition indispensable de la sauce charcutière (qui se mange chaude), hachés dans la mayonnaise de la sauce tartare (avec œuf dur, câpres, échalote et persil) et de la sauce verte.
+Les cornichons confits au vinaigre sont appréciés dans les sandwichs (notamment le jambon-beurre), et les cornichons doux (Dill Pickles) dans les hamburgers,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cornichon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornichon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Lexicographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « cornichon », à l'origine « petite corne », est également utilisé en langage familier pour désigner une personne niaise, stupide[11].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « cornichon », à l'origine « petite corne », est également utilisé en langage familier pour désigner une personne niaise, stupide.
 L’appellation « cornichon de mer » est parfois utilisée pour désigner la salicorne d'Europe, une plante d’aspect fort différent des cornichons, qui n’est pas botaniquement de la même famille, et qui ne doit ce surnom qu’à cause d’un usage culinaire similaire. Quand elle est jeune, sa tige peut être confite dans le vinaigre et servir de condiment, à la manière d’un cornichon.
 Le terme « cornichon » était utilisé par Vauban pour désigner une fortification comportant deux bastions reliés par une courtine comme, par exemple, au château de Guillaumes.
 Par ailleurs, le bâtiment du 30 St Mary Axe à Londres, en forme d'obus, est surnommé Gherkin qui signifie cornichon.
@@ -651,35 +708,37 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Cornichon</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cornichon</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cornichon dans la culture populaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dans la série d'animation Rick et Morty, Rick décide de se transformer en cornichon dans l'épisode Rick-ornichon.
 Les Cornichons est une chanson de Nino Ferrer (1966), racontant un pique-nique dans la nature.
-Amora commercialise en 1987 le Tire-Croq[12], sur la base de l’invention de Maurice Fournet : dispositif qui permet de prendre les cornichons dans un bocal, sans mettre les doigts dans le vinaigre.
+Amora commercialise en 1987 le Tire-Croq, sur la base de l’invention de Maurice Fournet : dispositif qui permet de prendre les cornichons dans un bocal, sans mettre les doigts dans le vinaigre.
 Aux États-Unis, le cornichon de Noël est une décoration en forme de cornichon, cachée dans un sapin de Noël.</t>
         </is>
       </c>
